--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Mdk-Notch2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Mdk-Notch2.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.098888</v>
+        <v>0.5979736666666666</v>
       </c>
       <c r="H2">
-        <v>6.296664</v>
+        <v>1.793921</v>
       </c>
       <c r="I2">
-        <v>0.1082453658858517</v>
+        <v>0.03342655292740804</v>
       </c>
       <c r="J2">
-        <v>0.1082453658858517</v>
+        <v>0.03342655292740804</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.380049</v>
+        <v>1.492477333333333</v>
       </c>
       <c r="N2">
-        <v>100.140147</v>
+        <v>4.477432</v>
       </c>
       <c r="O2">
-        <v>0.3891462059670435</v>
+        <v>0.02769484181536182</v>
       </c>
       <c r="P2">
-        <v>0.3891462059670435</v>
+        <v>0.02769484181536182</v>
       </c>
       <c r="Q2">
-        <v>70.06098428551201</v>
+        <v>0.8924621434302222</v>
       </c>
       <c r="R2">
-        <v>630.548858569608</v>
+        <v>8.032159290872</v>
       </c>
       <c r="S2">
-        <v>0.04212327344799362</v>
+        <v>0.0009257430957573856</v>
       </c>
       <c r="T2">
-        <v>0.04212327344799361</v>
+        <v>0.0009257430957573856</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.098888</v>
+        <v>0.5979736666666666</v>
       </c>
       <c r="H3">
-        <v>6.296664</v>
+        <v>1.793921</v>
       </c>
       <c r="I3">
-        <v>0.1082453658858517</v>
+        <v>0.03342655292740804</v>
       </c>
       <c r="J3">
-        <v>0.1082453658858517</v>
+        <v>0.03342655292740804</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>101.573584</v>
       </c>
       <c r="O3">
-        <v>0.3947165649764305</v>
+        <v>0.6282762845978157</v>
       </c>
       <c r="P3">
-        <v>0.3947165649764305</v>
+        <v>0.6282762845978156</v>
       </c>
       <c r="Q3">
-        <v>71.06385885819735</v>
+        <v>20.24610948698489</v>
       </c>
       <c r="R3">
-        <v>639.574729723776</v>
+        <v>182.214985382864</v>
       </c>
       <c r="S3">
-        <v>0.04272623899708027</v>
+        <v>0.02100111048014417</v>
       </c>
       <c r="T3">
-        <v>0.04272623899708026</v>
+        <v>0.02100111048014416</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.098888</v>
+        <v>0.5979736666666666</v>
       </c>
       <c r="H4">
-        <v>6.296664</v>
+        <v>1.793921</v>
       </c>
       <c r="I4">
-        <v>0.1082453658858517</v>
+        <v>0.03342655292740804</v>
       </c>
       <c r="J4">
-        <v>0.1082453658858517</v>
+        <v>0.03342655292740804</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,25 +679,25 @@
         <v>18.53974466666667</v>
       </c>
       <c r="N4">
-        <v>55.61923400000001</v>
+        <v>55.619234</v>
       </c>
       <c r="O4">
-        <v>0.2161372290565261</v>
+        <v>0.3440288735868225</v>
       </c>
       <c r="P4">
-        <v>0.2161372290565261</v>
+        <v>0.3440288735868225</v>
       </c>
       <c r="Q4">
-        <v>38.91284760393067</v>
+        <v>11.08627909739044</v>
       </c>
       <c r="R4">
-        <v>350.215628435376</v>
+        <v>99.77651187651399</v>
       </c>
       <c r="S4">
-        <v>0.0233958534407778</v>
+        <v>0.0114996993515065</v>
       </c>
       <c r="T4">
-        <v>0.02339585344077779</v>
+        <v>0.0114996993515065</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>47.625431</v>
       </c>
       <c r="I5">
-        <v>0.8187243600843848</v>
+        <v>0.8874158839838097</v>
       </c>
       <c r="J5">
-        <v>0.8187243600843847</v>
+        <v>0.8874158839838097</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>33.380049</v>
+        <v>1.492477333333333</v>
       </c>
       <c r="N5">
-        <v>100.140147</v>
+        <v>4.477432</v>
       </c>
       <c r="O5">
-        <v>0.3891462059670435</v>
+        <v>0.02769484181536182</v>
       </c>
       <c r="P5">
-        <v>0.3891462059670435</v>
+        <v>0.02769484181536182</v>
       </c>
       <c r="Q5">
-        <v>529.913073475373</v>
+        <v>23.69329208591022</v>
       </c>
       <c r="R5">
-        <v>4769.217661278357</v>
+        <v>213.239628773192</v>
       </c>
       <c r="S5">
-        <v>0.3186034784596339</v>
+        <v>0.02457684253137109</v>
       </c>
       <c r="T5">
-        <v>0.3186034784596339</v>
+        <v>0.02457684253137109</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>47.625431</v>
       </c>
       <c r="I6">
-        <v>0.8187243600843848</v>
+        <v>0.8874158839838097</v>
       </c>
       <c r="J6">
-        <v>0.8187243600843847</v>
+        <v>0.8874158839838097</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>101.573584</v>
       </c>
       <c r="O6">
-        <v>0.3947165649764305</v>
+        <v>0.6282762845978157</v>
       </c>
       <c r="P6">
-        <v>0.3947165649764305</v>
+        <v>0.6282762845978156</v>
       </c>
       <c r="Q6">
         <v>537.4984129127449</v>
@@ -818,10 +818,10 @@
         <v>4837.485716214705</v>
       </c>
       <c r="S6">
-        <v>0.3231640670750346</v>
+        <v>0.5575423544824342</v>
       </c>
       <c r="T6">
-        <v>0.3231640670750345</v>
+        <v>0.5575423544824341</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>47.625431</v>
       </c>
       <c r="I7">
-        <v>0.8187243600843848</v>
+        <v>0.8874158839838097</v>
       </c>
       <c r="J7">
-        <v>0.8187243600843847</v>
+        <v>0.8874158839838097</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,13 +865,13 @@
         <v>18.53974466666667</v>
       </c>
       <c r="N7">
-        <v>55.61923400000001</v>
+        <v>55.619234</v>
       </c>
       <c r="O7">
-        <v>0.2161372290565261</v>
+        <v>0.3440288735868225</v>
       </c>
       <c r="P7">
-        <v>0.2161372290565261</v>
+        <v>0.3440288735868225</v>
       </c>
       <c r="Q7">
         <v>294.3211101266505</v>
@@ -880,10 +880,10 @@
         <v>2648.889991139854</v>
       </c>
       <c r="S7">
-        <v>0.1769568145497164</v>
+        <v>0.3052966869700044</v>
       </c>
       <c r="T7">
-        <v>0.1769568145497164</v>
+        <v>0.3052966869700044</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>4.248192</v>
       </c>
       <c r="I8">
-        <v>0.07303027402976368</v>
+        <v>0.07915756308878232</v>
       </c>
       <c r="J8">
-        <v>0.07303027402976367</v>
+        <v>0.07915756308878232</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>33.380049</v>
+        <v>1.492477333333333</v>
       </c>
       <c r="N8">
-        <v>100.140147</v>
+        <v>4.477432</v>
       </c>
       <c r="O8">
-        <v>0.3891462059670435</v>
+        <v>0.02769484181536182</v>
       </c>
       <c r="P8">
-        <v>0.3891462059670435</v>
+        <v>0.02769484181536182</v>
       </c>
       <c r="Q8">
-        <v>47.26828570713599</v>
+        <v>2.113443422549334</v>
       </c>
       <c r="R8">
-        <v>425.4145713642239</v>
+        <v>19.020990802944</v>
       </c>
       <c r="S8">
-        <v>0.02841945405941605</v>
+        <v>0.00219225618823335</v>
       </c>
       <c r="T8">
-        <v>0.02841945405941604</v>
+        <v>0.00219225618823335</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>4.248192</v>
       </c>
       <c r="I9">
-        <v>0.07303027402976368</v>
+        <v>0.07915756308878232</v>
       </c>
       <c r="J9">
-        <v>0.07303027402976367</v>
+        <v>0.07915756308878232</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>101.573584</v>
       </c>
       <c r="O9">
-        <v>0.3947165649764305</v>
+        <v>0.6282762845978157</v>
       </c>
       <c r="P9">
-        <v>0.3947165649764305</v>
+        <v>0.6282762845978156</v>
       </c>
       <c r="Q9">
-        <v>47.94489855112533</v>
+        <v>47.94489855112535</v>
       </c>
       <c r="R9">
-        <v>431.504086960128</v>
+        <v>431.5040869601281</v>
       </c>
       <c r="S9">
-        <v>0.02882625890431574</v>
+        <v>0.04973281963523735</v>
       </c>
       <c r="T9">
-        <v>0.02882625890431573</v>
+        <v>0.04973281963523734</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>4.248192</v>
       </c>
       <c r="I10">
-        <v>0.07303027402976368</v>
+        <v>0.07915756308878232</v>
       </c>
       <c r="J10">
-        <v>0.07303027402976367</v>
+        <v>0.07915756308878232</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,25 +1051,25 @@
         <v>18.53974466666667</v>
       </c>
       <c r="N10">
-        <v>55.61923400000001</v>
+        <v>55.619234</v>
       </c>
       <c r="O10">
-        <v>0.2161372290565261</v>
+        <v>0.3440288735868225</v>
       </c>
       <c r="P10">
-        <v>0.2161372290565261</v>
+        <v>0.3440288735868225</v>
       </c>
       <c r="Q10">
-        <v>26.25346499165866</v>
+        <v>26.25346499165867</v>
       </c>
       <c r="R10">
         <v>236.281184924928</v>
       </c>
       <c r="S10">
-        <v>0.0157845610660319</v>
+        <v>0.02723248726531162</v>
       </c>
       <c r="T10">
-        <v>0.0157845610660319</v>
+        <v>0.02723248726531162</v>
       </c>
     </row>
   </sheetData>
